--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2757972.239204984</v>
+        <v>2755402.445834457</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205916</v>
+        <v>9964927.03528793</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431055</v>
+        <v>430763.7823717219</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9122799.152013339</v>
+        <v>9122957.578688119</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="E2" t="n">
-        <v>120.1855270503906</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.32897990642503</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>354.7522162574256</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>327.1387951101893</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851596</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.93999108643384</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>401.3550844723781</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>55.90301252244944</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.140747999192</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986229</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>7.729505493047122</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1579,7 +1579,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.61559692495637</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127592</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.3608535734577</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>83.5541093828361</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>227.44160755583</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>32.96603980215194</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>172.5112693098274</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>105.3798824585354</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>210.177480908705</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>64.44601915224106</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>22.39216899856044</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.1834952849991</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>64.44601915224106</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>14.08221454840528</v>
       </c>
       <c r="H34" t="n">
-        <v>131.6267707433221</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>38.03682829123536</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>1.272790488244789</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>89.5340822374514</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>175.2996980526258</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.799772605716478</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1843.218611560565</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1484.952912953815</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4325,22 +4325,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2465.942913862885</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>1717.512263598977</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862885</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862885</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862885</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488086</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488086</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488086</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488086</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.549250954101</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406939</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>786.546878019087</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018223</v>
+        <v>1822.041796525166</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>671.6612947898188</v>
+        <v>484.4236418782193</v>
       </c>
       <c r="T10" t="n">
-        <v>671.6612947898188</v>
+        <v>257.1154545468211</v>
       </c>
       <c r="U10" t="n">
-        <v>671.6612947898188</v>
+        <v>257.1154545468211</v>
       </c>
       <c r="V10" t="n">
-        <v>671.6612947898188</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W10" t="n">
-        <v>671.6612947898188</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5027,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
         <v>842.9746074384018</v>
@@ -5051,40 +5051,40 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151123</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610261</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297609</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580354</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347203</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026521</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746071</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.2347794025</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132386</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871306</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895494</v>
       </c>
     </row>
     <row r="12">
@@ -5094,61 +5094,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C12" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D12" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E12" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F12" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G12" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612966</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034529</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413343</v>
       </c>
       <c r="L12" t="n">
-        <v>572.0050724668117</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M12" t="n">
-        <v>1164.023426718939</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.119390118276</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O12" t="n">
-        <v>2332.99586511847</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S12" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U12" t="n">
         <v>2016.877442379908</v>
@@ -5160,7 +5160,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y12" t="n">
         <v>1111.876178449477</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>930.4858260316502</v>
+        <v>326.1595320196981</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3691866193144</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4560930369213</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="F13" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520202</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5227,22 +5227,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2178.382964033126</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1889.306750347853</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1634.622262141966</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1345.205092105005</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>1117.215541206988</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.422008959557</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831372</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685966</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963582</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892045</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294979</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234017</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151123</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610261</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297609</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580354</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347203</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026521</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746071</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.2347794025</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132386</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871306</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895494</v>
       </c>
     </row>
     <row r="15">
@@ -5331,61 +5331,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C15" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D15" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E15" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F15" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G15" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>915.089423558717</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N15" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="O15" t="n">
-        <v>2053.984252811039</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.567771237115</v>
+        <v>2287.92487647661</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S15" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U15" t="n">
         <v>2016.877442379908</v>
@@ -5397,7 +5397,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.876178449477</v>
@@ -5413,31 +5413,31 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196932</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196932</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196932</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="G16" t="n">
-        <v>158.945337194272</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E17" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
         <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294979</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234017</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151123</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610261</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297609</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580354</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347203</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026521</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746071</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.2347794025</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132386</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871306</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E18" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F18" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M18" t="n">
-        <v>1356.791087284249</v>
+        <v>1281.571598885108</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284249</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O18" t="n">
         <v>1903.667562284444</v>
@@ -5613,16 +5613,16 @@
         <v>2323.25108071052</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5634,7 +5634,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>554.7738874534193</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>385.8377045255124</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="E19" t="n">
-        <v>178.2464384373001</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="F19" t="n">
-        <v>178.2464384373001</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L19" t="n">
         <v>820.2210160948589</v>
@@ -5710,13 +5710,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1185.204482325207</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>957.2149314271892</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>736.4223522836591</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
         <v>842.9746074384018</v>
@@ -5774,7 +5774,7 @@
         <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
         <v>4606.950144347201</v>
@@ -5805,61 +5805,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E21" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F21" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612966</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034529</v>
+        <v>94.88738072612966</v>
       </c>
       <c r="K21" t="n">
-        <v>241.4963299034529</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L21" t="n">
-        <v>241.4963299034529</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="M21" t="n">
-        <v>734.6951238849133</v>
+        <v>699.3689196510036</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.46488305034</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050534</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.92487647661</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.8714428665047</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C22" t="n">
-        <v>402.9352599385978</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D22" t="n">
-        <v>402.9352599385978</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="E22" t="n">
-        <v>402.9352599385978</v>
+        <v>209.778263855204</v>
       </c>
       <c r="F22" t="n">
-        <v>402.9352599385978</v>
+        <v>209.778263855204</v>
       </c>
       <c r="G22" t="n">
-        <v>235.7210651131766</v>
+        <v>209.778263855204</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L22" t="n">
         <v>820.2210160948589</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6063,25 +6063,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034529</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668117</v>
+        <v>425.396123289489</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310563</v>
+        <v>916.128456133241</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.75575956269</v>
+        <v>1508.146810385369</v>
       </c>
       <c r="N24" t="n">
-        <v>2134.22883626969</v>
+        <v>2130.242773784707</v>
       </c>
       <c r="O24" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C25" t="n">
-        <v>402.9352599385978</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D25" t="n">
-        <v>402.9352599385978</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E25" t="n">
-        <v>402.9352599385978</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6145,52 +6145,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X25" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L26" t="n">
         <v>1462.494387944179</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6306,22 +6306,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149663</v>
       </c>
       <c r="L27" t="n">
-        <v>142.6767696327819</v>
+        <v>915.0894235587183</v>
       </c>
       <c r="M27" t="n">
-        <v>734.6951238849103</v>
+        <v>1507.107777810847</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.791087284247</v>
+        <v>2129.203741210184</v>
       </c>
       <c r="O27" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476028</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C28" t="n">
-        <v>326.1595320196959</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D28" t="n">
-        <v>326.1595320196959</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E28" t="n">
-        <v>326.1595320196959</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F28" t="n">
-        <v>326.1595320196959</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>158.9453371942748</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160703</v>
@@ -6427,7 +6427,7 @@
         <v>897.5367589213727</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778425</v>
+        <v>874.9184063975742</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160725</v>
+        <v>93.84834815160724</v>
       </c>
       <c r="J29" t="n">
         <v>373.3442236507207</v>
@@ -6482,13 +6482,13 @@
         <v>4151.951912946813</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403611</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6534,34 +6534,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612971</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779759</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149663</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L30" t="n">
-        <v>424.3570907149663</v>
+        <v>1063.776437885087</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849103</v>
+        <v>1655.794792137216</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284247</v>
+        <v>1655.794792137216</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>2098.902632035779</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6601,22 +6601,22 @@
         <v>326.1595320196959</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196959</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="E31" t="n">
-        <v>326.1595320196959</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="F31" t="n">
-        <v>326.1595320196959</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="G31" t="n">
-        <v>158.9453371942748</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411611</v>
@@ -6686,46 +6686,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160696</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J32" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K32" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294975</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234013</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151119</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q32" t="n">
         <v>4566.333620403612</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6771,34 +6771,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K33" t="n">
-        <v>474.5240650264086</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L33" t="n">
-        <v>965.25639787016</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M33" t="n">
-        <v>965.25639787016</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="N33" t="n">
-        <v>1587.352361269496</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.9550599890988</v>
+        <v>715.8882940911329</v>
       </c>
       <c r="C34" t="n">
-        <v>394.0188770611919</v>
+        <v>546.952111163226</v>
       </c>
       <c r="D34" t="n">
-        <v>394.0188770611919</v>
+        <v>396.8354717508903</v>
       </c>
       <c r="E34" t="n">
-        <v>394.0188770611919</v>
+        <v>396.8354717508903</v>
       </c>
       <c r="F34" t="n">
-        <v>394.0188770611919</v>
+        <v>249.9455242529799</v>
       </c>
       <c r="G34" t="n">
-        <v>226.8046822357708</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T34" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W34" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X34" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.6035248193385</v>
+        <v>897.5367589213727</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
@@ -6935,25 +6935,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
         <v>4566.333620403613</v>
@@ -7011,31 +7011,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3570907149658</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L36" t="n">
-        <v>424.3570907149658</v>
+        <v>916.1284561332395</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849127</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7680286442462</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6513892319105</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7382956495174</v>
+        <v>347.182621365207</v>
       </c>
       <c r="F37" t="n">
-        <v>93.84834815160703</v>
+        <v>200.2926738672966</v>
       </c>
       <c r="G37" t="n">
         <v>93.84834815160703</v>
@@ -7117,28 +7117,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.991460657679</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.312678372061</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.236464686788</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.551976480901</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H38" t="n">
         <v>93.84834815160703</v>
@@ -7172,22 +7172,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
         <v>4202.751434297606</v>
@@ -7248,31 +7248,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J39" t="n">
-        <v>241.496329903453</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K39" t="n">
-        <v>241.496329903453</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="L39" t="n">
-        <v>241.496329903453</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6951238849127</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7309,22 +7309,22 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196932</v>
+        <v>493.8100679897771</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="E40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F40" t="n">
-        <v>326.1595320196932</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7397,7 +7397,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
@@ -7409,13 +7409,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
         <v>2234.298471234014</v>
@@ -7485,31 +7485,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3570907149658</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L42" t="n">
-        <v>915.0894235587172</v>
+        <v>916.1284561332395</v>
       </c>
       <c r="M42" t="n">
-        <v>1507.107777810845</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.203741210181</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476001</v>
+        <v>721.9880822788404</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196932</v>
+        <v>553.0518993509335</v>
       </c>
       <c r="D43" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E43" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F43" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G43" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H43" t="n">
         <v>93.84834815160703</v>
@@ -7594,25 +7594,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062235</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856348</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819387</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213699</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778398</v>
+        <v>903.6365471090801</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556113</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112148</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459571</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
@@ -7725,52 +7725,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7731203228276</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0987265385863</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.477214165138</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.075177719745</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437067</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9491029157998</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9491029157998</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9491029157998</v>
+        <v>347.182621365207</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9491029157998</v>
+        <v>200.2926738672966</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7530036306798</v>
+        <v>200.2926738672966</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9350515036934</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958342</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752455</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174766</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739464</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050813</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.31264782909386</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>51.31264782909358</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>51.31264782909363</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782908249</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782908187</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.31264782908255</v>
       </c>
       <c r="L32" t="n">
-        <v>51.31264782908954</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>51.31264782909039</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819412</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.8859675251652</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.9690564271384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.0601944494736</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>81.98794349433082</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440903</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>59.08139078076101</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>107.487949989802</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>8.827219048631576</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>43.23559055967699</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>76.00797063971547</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>76.00797063971282</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>81.80457674440895</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>196.1924843535344</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0.4319777332133015</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>76.00797063971282</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>151.4598383287616</v>
       </c>
       <c r="H34" t="n">
-        <v>8.827219048631804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>60.16217041863425</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>143.3016600672236</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>165.974030610383</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>76.00797063971552</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>43.28495529946895</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405074</v>
+        <v>35.07410733342124</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019772</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019771</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019771</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019769</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.2212019771</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771058.8774605922</v>
+        <v>771333.221201977</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="E2" t="n">
         <v>645346.3816948476</v>
       </c>
       <c r="F2" t="n">
-        <v>645346.3816948474</v>
+        <v>645346.3816948473</v>
       </c>
       <c r="G2" t="n">
-        <v>645346.3816948474</v>
+        <v>645346.3816948471</v>
       </c>
       <c r="H2" t="n">
-        <v>645346.3816948475</v>
+        <v>645346.3816948477</v>
       </c>
       <c r="I2" t="n">
-        <v>645346.3816948473</v>
+        <v>645346.381694847</v>
       </c>
       <c r="J2" t="n">
         <v>645346.381694847</v>
       </c>
       <c r="K2" t="n">
-        <v>645346.3816948471</v>
+        <v>645346.3816948474</v>
       </c>
       <c r="L2" t="n">
         <v>645346.3816948473</v>
       </c>
       <c r="M2" t="n">
+        <v>645346.3816948476</v>
+      </c>
+      <c r="N2" t="n">
         <v>645346.3816948475</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>645346.3816948474</v>
+      </c>
+      <c r="P2" t="n">
         <v>645346.3816948473</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645346.3816948473</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.665454512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.016696842270903e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925941</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901372</v>
+        <v>124307.2113901362</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5781.971894855156</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5781.971894855077</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5781.971894855154</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5781.971894855127</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5781.971894855005</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5781.971894854998</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5781.971894854989</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5781.971894854999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5781.971894855165</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5781.971894855164</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5781.971894855116</v>
+      </c>
+      <c r="P4" t="n">
         <v>5781.971894855114</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5781.971894855166</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5781.971894855114</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5781.971894855151</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5781.971894855114</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5781.971894855005</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5781.971894855006</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5781.971894855096</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5781.971894855098</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5781.971894855058</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5781.971894855147</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
@@ -26497,7 +26497,7 @@
         <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-217058.0473142588</v>
+        <v>-217058.0473142589</v>
       </c>
       <c r="C6" t="n">
-        <v>372909.8319002854</v>
+        <v>372909.8319002853</v>
       </c>
       <c r="D6" t="n">
-        <v>372909.8319002854</v>
+        <v>372909.8319002853</v>
       </c>
       <c r="E6" t="n">
-        <v>-397875.2951117582</v>
+        <v>-397911.1920936224</v>
       </c>
       <c r="F6" t="n">
-        <v>538634.3703427537</v>
+        <v>538598.4733608892</v>
       </c>
       <c r="G6" t="n">
-        <v>538634.3703427537</v>
+        <v>538598.473360889</v>
       </c>
       <c r="H6" t="n">
-        <v>538634.3703427538</v>
+        <v>538598.4733608896</v>
       </c>
       <c r="I6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608881</v>
       </c>
       <c r="J6" t="n">
-        <v>362211.1511501594</v>
+        <v>362175.2541682962</v>
       </c>
       <c r="K6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608895</v>
       </c>
       <c r="L6" t="n">
-        <v>538634.3703427545</v>
+        <v>538598.4733608892</v>
       </c>
       <c r="M6" t="n">
-        <v>414327.1589526166</v>
+        <v>414291.2619707535</v>
       </c>
       <c r="N6" t="n">
-        <v>538634.3703427537</v>
+        <v>538598.4733608895</v>
       </c>
       <c r="O6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608894</v>
       </c>
       <c r="P6" t="n">
-        <v>532890.9440727121</v>
+        <v>538598.4733608892</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26756,7 +26756,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="J3" t="n">
         <v>1358.041048716387</v>
@@ -26765,7 +26765,7 @@
         <v>1358.041048716387</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.2973844992987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,19 +26978,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.904467235008888e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-4.515190420663536e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405327</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405323</v>
+        <v>498.8170791405327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.983128723806658</v>
       </c>
       <c r="E2" t="n">
-        <v>261.7448430218711</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516593</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>10.52067551358198</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>22.10217360722373</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693514</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>306.7938505770467</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>12.42908554841694</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>156.2425264275695</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.996895324636</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>-1.115261047703417e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.285791304285841e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.055516765897694e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31279,46 +31279,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31844,7 +31844,7 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504301</v>
@@ -31853,16 +31853,16 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>385.6218958841486</v>
       </c>
       <c r="P12" t="n">
-        <v>357.0213665833166</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32093,13 +32093,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>221.1386921756688</v>
       </c>
       <c r="Q15" t="n">
-        <v>221.0369088927402</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>471.6886536848224</v>
@@ -32321,13 +32321,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1579551075602</v>
+        <v>512.3180494032213</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>557.7961431982453</v>
@@ -32546,19 +32546,19 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>640.3146339032915</v>
+        <v>418.8742322669831</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927637</v>
@@ -32573,7 +32573,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S21" t="n">
         <v>54.2575834086216</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N24" t="n">
-        <v>615.6579511813131</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>570.4443059707675</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L27" t="n">
-        <v>187.8760176396468</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504309</v>
@@ -33038,13 +33038,13 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426213</v>
+        <v>571.493833823821</v>
       </c>
       <c r="P27" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,34 +33257,34 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K30" t="n">
         <v>471.688653684823</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M30" t="n">
-        <v>455.6067946997396</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426213</v>
+        <v>590.1799211096599</v>
       </c>
       <c r="P30" t="n">
         <v>557.796143198246</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862166</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M32" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T32" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U32" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
-        <v>373.2229896036071</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>403.4749205278488</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,10 +33728,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,31 +33740,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>455.6067946997425</v>
+        <v>551.564768181715</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,43 +33965,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>150.4305144013751</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>640.3146339032908</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,10 +34202,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,31 +34214,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>366.5958444985333</v>
       </c>
       <c r="O42" t="n">
-        <v>571.4938338238233</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554637</v>
       </c>
       <c r="O11" t="n">
         <v>689.7596327870084</v>
@@ -35431,7 +35431,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35492,7 +35492,7 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284117</v>
@@ -35501,16 +35501,16 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>243.0256514397041</v>
       </c>
       <c r="P12" t="n">
-        <v>223.0469591689864</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>525.686772867156</v>
       </c>
       <c r="L14" t="n">
         <v>625.777556066439</v>
@@ -35668,7 +35668,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35741,13 +35741,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>87.16428476133861</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.0551348067187</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955327</v>
       </c>
       <c r="M17" t="n">
         <v>728.287436302058</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>333.8472147104634</v>
@@ -35969,13 +35969,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>297.0239211855419</v>
+        <v>370.1840154812029</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>423.8217357839151</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>498.1805999812731</v>
+        <v>276.7401983449648</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094305</v>
@@ -36221,7 +36221,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>677.09020389553</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N24" t="n">
-        <v>484.3162390979798</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>427.848061526323</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020592</v>
+        <v>779.6000841311417</v>
       </c>
       <c r="N26" t="n">
         <v>744.732300926371</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L27" t="n">
-        <v>49.32163785977259</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284126</v>
@@ -36686,13 +36686,13 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981769</v>
+        <v>428.8975893793765</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>553.8443926134837</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812694936</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K30" t="n">
         <v>333.847214710464</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M30" t="n">
-        <v>313.4727607777212</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981769</v>
+        <v>447.5836766652154</v>
       </c>
       <c r="P30" t="n">
         <v>423.8217357839158</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671458</v>
       </c>
       <c r="L32" t="n">
-        <v>677.0902038955288</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N32" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P32" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
-        <v>235.3815506292481</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>261.3408866058305</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L34" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O34" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>605.1570404425727</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>313.4727607777241</v>
+        <v>409.4307342596967</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>12.58907542701613</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>498.1805999812725</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>525.686772867153</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>235.2541324152</v>
       </c>
       <c r="O42" t="n">
-        <v>428.8975893793788</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
